--- a/Archiver/results.xlsx
+++ b/Archiver/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alpo\source\repos\ArchiverDP\Archiver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7914881E-39E7-4F02-ACC1-EDBE7B5D6B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833E521B-71E4-49FA-81FE-703CC5B51224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -789,6 +789,72 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$K$1:$K$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Лист1!$J$1:$J$19</c:f>
@@ -1770,6 +1836,72 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$K$1:$K$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Лист1!$E$1:$E$19</c:f>
